--- a/tabela2.xlsx
+++ b/tabela2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <x:si>
     <x:t xml:space="preserve">Caminho do Curral </x:t>
   </x:si>
@@ -331,6 +331,222 @@
   </x:si>
   <x:si>
     <x:t>22770-190</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Monte Sião </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-370</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Moreira Campos </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-125</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Oscar Cordeiro </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-200</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Oswaldo Lussac </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-640</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Paço do Lumiar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-080</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Paulo Moreira da Silva </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-210</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Pedro Ivo </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-665</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Percy Lau </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-220</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Pintor Leandro Joaquim </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-650</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Professor Henrique Costa - até 685 - lado ímpar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-232</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Professor Henrique Costa - até 726 - lado par </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-233</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Professor Henrique Costa - de 687 ao fim - lado ímpar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-234</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Professor Henrique Costa - de 728 ao fim - lado par </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-235</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Professor Mário de Vasconcelos </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-090</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Professor Rocha Lagoa </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-390</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Professor Waldemar Berardinelli </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-400</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Rebouças </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-410</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Retiro dos Artistas - até 919 - lado ímpar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-102</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Retiro dos Artistas - até 930 - lado par </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-103</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Retiro dos Artistas - de 921 ao fim - lado ímpar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-104</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Retiro dos Artistas - de 932 ao fim - lado par </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-105</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Samuel das Neves </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-110</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua São Boneto </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-430</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua São Deodato </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-240</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Solar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-651</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Soldado Dirceu de Almeida </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-120</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Soldado Francisco de Souza </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-155</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Soldado Genésio Correia </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-440</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Soldado Hilário Zanesco </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-450</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Soldado João da Silva </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-460</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Soldado José Solano </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-470</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Tenente José Jerônimo de Mesquita </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-250</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Vila Formosa </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-084</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Vila Lumiar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-082</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Waldemar Loureiro </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-480</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rua Waldemar Rodrigues Martins </x:t>
+  </x:si>
+  <x:si>
+    <x:t>22770-106</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -596,7 +812,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="15.85125" defaultRowHeight="15.75" customHeight="1"/>
+  <x:sheetFormatPr defaultColWidth="20.115" defaultRowHeight="15.75" customHeight="1"/>
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
@@ -1296,6 +1512,510 @@
       </x:c>
       <x:c r="D50" s="1" t="s">
         <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="A51" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D51" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="A52" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D52" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="A54" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B54" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C54" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D54" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="A55" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B55" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C55" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D55" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B56" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B57" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C57" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B58" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C58" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="A59" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B59" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C59" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="A60" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B60" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C60" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="A61" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B61" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C61" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="A62" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B62" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C62" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="A63" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B63" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C63" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B64" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C64" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B65" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C65" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="A66" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B66" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C66" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D66" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="A67" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B67" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C67" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B68" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C68" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D68" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="A69" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B69" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C69" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D69" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4">
+      <x:c r="A70" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B70" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C70" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D70" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4">
+      <x:c r="A71" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B71" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C71" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D71" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4">
+      <x:c r="A72" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B72" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C72" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D72" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4">
+      <x:c r="A73" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B73" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C73" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D73" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4">
+      <x:c r="A74" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B74" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C74" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D74" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B75" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C75" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D75" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="A76" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B76" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C76" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D76" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4">
+      <x:c r="A77" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B77" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C77" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D77" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4">
+      <x:c r="A78" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B78" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C78" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D78" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4">
+      <x:c r="A79" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B79" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C79" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D79" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4">
+      <x:c r="A80" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B80" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C80" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D80" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4">
+      <x:c r="A81" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B81" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C81" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D81" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4">
+      <x:c r="A82" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B82" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C82" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D82" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4">
+      <x:c r="A83" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B83" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C83" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D83" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B84" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C84" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D84" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="A85" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B85" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C85" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D85" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4">
+      <x:c r="A86" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B86" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C86" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D86" s="1" t="s">
+        <x:v>176</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
